--- a/regionseng/7/transport and communication/transport and storage.xlsx
+++ b/regionseng/7/transport and communication/transport and storage.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +271,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -593,27 +596,27 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-    </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="3" spans="1:18" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="13">
         <v>2006</v>
@@ -660,8 +663,14 @@
       <c r="P3" s="31">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q3" s="31">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -710,8 +719,14 @@
       <c r="P4" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q4" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -760,8 +775,14 @@
       <c r="P5" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q5" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="R5" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -810,8 +831,14 @@
       <c r="P6" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q6" s="12">
+        <v>55</v>
+      </c>
+      <c r="R6" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -860,8 +887,14 @@
       <c r="P7" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>23</v>
+      </c>
+      <c r="R7" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -910,8 +943,14 @@
       <c r="P8" s="23">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q8" s="23">
+        <v>381.4</v>
+      </c>
+      <c r="R8" s="23">
+        <v>459.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -960,8 +999,14 @@
       <c r="P9" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1055,14 @@
       <c r="P10" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q10" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1111,14 @@
       <c r="P11" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="R11" s="12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
@@ -1110,8 +1167,14 @@
       <c r="P12" s="32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1223,14 @@
       <c r="P13" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q13" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -1210,11 +1279,17 @@
       <c r="P14" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="28">
+        <v>0</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>

--- a/regionseng/7/transport and communication/transport and storage.xlsx
+++ b/regionseng/7/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDC9C68-3659-47FC-B4C4-202B97EB858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21360" windowHeight="8010"/>
+    <workbookView xWindow="13770" yWindow="1995" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -197,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,12 +207,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -227,10 +222,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,9 +244,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -267,7 +256,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +361,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,6 +413,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,700 +619,736 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
         <v>2006</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>2007</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>2008</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>2009</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>2010</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>2011</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>2012</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>2013</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>2014</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>2015</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="12">
         <v>2016</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="12">
         <v>2017</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="12">
         <v>2018</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="12">
         <v>2019</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="27">
         <v>2020</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="27">
         <v>2021</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="27">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="S3" s="27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>0.13106999999999999</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>0.11672</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>0.28821999999999998</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <v>0.18704000000000001</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>3.3700000000000002E-3</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <v>0.3</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <v>0.1</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>0.33050000000000002</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <v>0.94059999999999999</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <v>1.0066299999999999</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>1.2</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="20">
         <v>1</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="20">
         <v>0.9</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="S4" s="20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>0.13106999999999999</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>0.11672</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>0.28821999999999998</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>0.18704000000000001</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>3.3700000000000002E-3</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>0.1</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>0.1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>0.33050000000000002</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>0.13880000000000001</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="15">
         <v>0.7</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="15">
         <v>1.0066299999999999</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="20">
         <v>1</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="20">
         <v>1</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="20">
         <v>1.3</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="S5" s="20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>30</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>44</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>94</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>31</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>22.4</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>4.1729900000000004</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>28</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>11</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <v>65</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="18">
         <v>12</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <v>48</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>51.33325</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="21">
         <v>61.4</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>64</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>50</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <v>55</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="S6" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>42</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>80.099999999999994</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>31</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>21.4</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>2.782</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>26</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>11</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <v>55</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <v>4</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <v>13</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <v>16.282630000000001</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="21">
         <v>38.4</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>33</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <v>5</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <v>23</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="S7" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>72.514492000000004</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>48.214284999999997</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>76.963171000000003</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>116.06182699999999</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <v>70.519469999999998</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="15">
         <v>40.749946000000001</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <v>142.19999999999999</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>232.5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <v>79.2</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <v>170.8</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="18">
         <v>131.69999999999999</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="15">
         <v>276.84671700000001</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="15">
         <v>278.77061600000002</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>236.1</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="20">
         <v>259</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="20">
         <v>381.4</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="20">
         <v>459.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="S8" s="20">
+        <v>453.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>2.6980000000000001E-2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>9.0459999999999999E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>2.3619999999999999E-2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <v>7.3400000000000002E-3</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
         <v>0.1</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <v>0.246</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="17">
         <v>5.21E-2</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="18">
         <v>0.3</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="15">
         <v>0.47950999999999999</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="15">
         <v>0.19658999999999999</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>0.6</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <v>0.6</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="S9" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>2.9159999999999998E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>7.3980000000000004E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>5.4980000000000001E-2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>1.8110000000000001E-2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <v>0.12845999999999999</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>0.1</v>
       </c>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
         <v>0.1</v>
       </c>
-      <c r="R10" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>5.3190000000000001E-2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>7.9619999999999996E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>0.19775999999999999</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>0.16342000000000001</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <v>2.1409999999999998E-2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>1.42E-3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>0.1</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <v>0.7</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="15">
         <v>0.24107000000000001</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="15">
         <v>0.81005000000000005</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>0.4</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="10">
         <v>0.6</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="10">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="S11" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
         <v>2.0729999999999998E-2</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>0</v>
-      </c>
-      <c r="R12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>3.687E-2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>9.0459999999999999E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>1.822E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>7.2899999999999996E-3</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>0.2</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="16">
         <v>0.1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>0.24709999999999999</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>5.21E-2</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="16">
         <v>0.3</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="15">
         <v>0.78200000000000003</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <v>0.17635999999999999</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>0.8</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="10">
         <v>0.6</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="S13" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <v>0.2</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="28">
+      <c r="I14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
         <v>0.31644</v>
       </c>
-      <c r="N14" s="28">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
+      <c r="N14" s="24">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <v>0.2</v>
       </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>0</v>
-      </c>
-      <c r="R14" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0</v>
+      </c>
+      <c r="S14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1300,58 +1359,58 @@
         <v>3</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
